--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -145,10 +145,6 @@
     <t>Team roster</t>
   </si>
   <si>
-    <t xml:space="preserve">BUG: Sound doesn't play when 
-it not visible inside window </t>
-  </si>
-  <si>
     <t>BUG: Sound replays when windows 
 is out of desktop borders</t>
   </si>
@@ -186,6 +182,10 @@
   </si>
   <si>
     <t>Implement functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG: Sound doesn't play when
+it's not visible inside window </t>
   </si>
 </sst>
 </file>
@@ -443,19 +443,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -464,57 +464,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color theme="0"/>
@@ -986,11 +936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="356267208"/>
-        <c:axId val="356257016"/>
+        <c:axId val="433011776"/>
+        <c:axId val="433012168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356267208"/>
+        <c:axId val="433011776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,7 +1043,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356257016"/>
+        <c:crossAx val="433012168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1101,7 +1051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356257016"/>
+        <c:axId val="433012168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356267208"/>
+        <c:crossAx val="433011776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,12 +2223,12 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -2294,7 +2244,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="7">
-        <v>42434</v>
+        <v>42576</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2305,7 +2255,7 @@
       </c>
       <c r="C2" s="9">
         <f>C1+14</f>
-        <v>42448</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2374,14 +2324,14 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>39</v>
+      <c r="A5" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="25">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
@@ -2413,7 +2363,7 @@
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -2445,7 +2395,7 @@
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2472,14 +2422,14 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="A8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="27">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -2509,9 +2459,9 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
@@ -2539,9 +2489,9 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
@@ -2568,14 +2518,14 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="26">
+      <c r="A11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="27">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
@@ -2604,10 +2554,10 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
@@ -2635,9 +2585,9 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
@@ -2665,9 +2615,9 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
@@ -2694,14 +2644,14 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="26">
+      <c r="A15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="27">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -2731,9 +2681,9 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
-      <c r="B16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -2763,9 +2713,9 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2">

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,15 @@
   <si>
     <t xml:space="preserve">BUG: Sound doesn't play when
 it's not visible inside window </t>
+  </si>
+  <si>
+    <t>To do</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -464,7 +473,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
@@ -477,21 +486,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -499,21 +493,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -599,7 +578,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -882,40 +860,40 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="433011776"/>
-        <c:axId val="433012168"/>
+        <c:axId val="213831848"/>
+        <c:axId val="213824400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433011776"/>
+        <c:axId val="213831848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433012168"/>
+        <c:crossAx val="213824400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1051,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433012168"/>
+        <c:axId val="213824400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1074,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1155,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433011776"/>
+        <c:crossAx val="213831848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2223,7 +2200,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,7 +2316,9 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2371,7 +2350,9 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2401,7 +2382,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2437,10 +2420,14 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2454,7 +2441,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2">
         <f t="shared" ref="U8:U14" si="1">E8-SUM(G8:T8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2463,11 +2450,15 @@
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2497,7 +2488,9 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2533,7 +2526,9 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2563,7 +2558,9 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2593,7 +2590,9 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2623,7 +2622,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2659,7 +2660,9 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2691,7 +2694,9 @@
       <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2721,7 +2726,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2766,7 +2773,7 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" ref="I18:T18" si="2">SUM(I5:I17)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
@@ -2814,7 +2821,7 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2909,51 +2916,51 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T20" s="2">
         <f>S20-SUM(T5:T17)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U20" s="10"/>
     </row>
@@ -2998,47 +3005,25 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="B11:B14"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F7 F15:F17">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="F5:F17">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7 U15:U18">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"To do"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Done"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U14">

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -860,40 +860,40 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="213831848"/>
-        <c:axId val="213824400"/>
+        <c:axId val="286941984"/>
+        <c:axId val="286942376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213831848"/>
+        <c:axId val="286941984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213824400"/>
+        <c:crossAx val="286942376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213824400"/>
+        <c:axId val="286942376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213831848"/>
+        <c:crossAx val="286941984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2200,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2527,11 +2527,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2545,7 +2547,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2554,16 +2556,20 @@
       <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2577,7 +2583,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -2586,12 +2592,14 @@
       <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2773,7 +2781,7 @@
       </c>
       <c r="I18" s="2">
         <f t="shared" ref="I18:T18" si="2">SUM(I5:I17)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="2"/>
@@ -2821,7 +2829,7 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2916,51 +2924,51 @@
       </c>
       <c r="I20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T20" s="2">
         <f>S20-SUM(T5:T17)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U20" s="10"/>
     </row>

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -866,34 +866,34 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="286941984"/>
-        <c:axId val="286942376"/>
+        <c:axId val="285075536"/>
+        <c:axId val="285076320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="286941984"/>
+        <c:axId val="285075536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286942376"/>
+        <c:crossAx val="285076320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286942376"/>
+        <c:axId val="285076320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286941984"/>
+        <c:crossAx val="285075536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1795,7 +1795,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2378,7 +2378,9 @@
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
@@ -2457,13 +2459,15 @@
         <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>5</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2475,7 +2479,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2484,7 +2488,9 @@
       <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
@@ -2789,7 +2795,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
@@ -2829,7 +2835,7 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2932,43 +2938,43 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="T20" s="2">
         <f>S20-SUM(T5:T17)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="U20" s="10"/>
     </row>

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -578,6 +578,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -869,31 +870,31 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="285075536"/>
-        <c:axId val="285076320"/>
+        <c:axId val="335105400"/>
+        <c:axId val="335099912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="285075536"/>
+        <c:axId val="335105400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285076320"/>
+        <c:crossAx val="335099912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285076320"/>
+        <c:axId val="335099912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,6 +1075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1132,7 +1134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285075536"/>
+        <c:crossAx val="335105400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1795,7 +1797,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2489,20 +2491,22 @@
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2513,7 +2517,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2632,7 +2636,9 @@
       <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" si="2"/>
@@ -2835,7 +2841,7 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2942,39 +2948,39 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T20" s="2">
         <f>S20-SUM(T5:T17)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U20" s="10"/>
     </row>

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -473,7 +473,22 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -882,19 +897,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,11 +930,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="335105400"/>
-        <c:axId val="335099912"/>
+        <c:axId val="283384296"/>
+        <c:axId val="283384688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="335105400"/>
+        <c:axId val="283384296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335099912"/>
+        <c:crossAx val="283384688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="335099912"/>
+        <c:axId val="283384688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335105400"/>
+        <c:crossAx val="283384296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,7 +1812,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2201,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2331,13 +2346,15 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2">
+        <v>2</v>
+      </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
         <f>E5-SUM(G5:T5)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2353,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2366,12 +2383,14 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2">
         <f t="shared" ref="U6:U18" si="0">E6-SUM(G6:T6)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2387,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2681,7 +2700,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2692,14 +2711,16 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -2715,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2728,12 +2749,14 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>2</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -2821,15 +2844,15 @@
       </c>
       <c r="P18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" si="2"/>
@@ -2841,7 +2864,7 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2964,23 +2987,23 @@
       </c>
       <c r="P20" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="T20" s="2">
         <f>S20-SUM(T5:T17)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="U20" s="10"/>
     </row>
@@ -3026,28 +3049,28 @@
     <mergeCell ref="B11:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7 U15:U18">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -473,22 +473,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0"/>
@@ -906,10 +891,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="283384296"/>
-        <c:axId val="283384688"/>
+        <c:axId val="290805320"/>
+        <c:axId val="290807280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283384296"/>
+        <c:axId val="290805320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283384688"/>
+        <c:crossAx val="290807280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283384688"/>
+        <c:axId val="290807280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283384296"/>
+        <c:crossAx val="290805320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1812,7 +1797,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2202,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2406,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2420,11 +2405,13 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2856,7 +2843,7 @@
       </c>
       <c r="S18" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2">
         <f t="shared" si="2"/>
@@ -2864,7 +2851,7 @@
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -2999,11 +2986,11 @@
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T20" s="2">
         <f>S20-SUM(T5:T17)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U20" s="10"/>
     </row>
@@ -3049,28 +3036,28 @@
     <mergeCell ref="B11:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7 U15:U18">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U14">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation and designs/Sprint_info/Sprint10.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint10.xlsx
@@ -578,7 +578,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -915,11 +914,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="290805320"/>
-        <c:axId val="290807280"/>
+        <c:axId val="272201824"/>
+        <c:axId val="272203000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290805320"/>
+        <c:axId val="272201824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290807280"/>
+        <c:crossAx val="272203000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290807280"/>
+        <c:axId val="272203000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,7 +1074,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1134,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290805320"/>
+        <c:crossAx val="272201824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,7 +1795,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2200,7 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2543,13 +2541,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2563,7 +2559,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2615,11 +2611,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2633,7 +2631,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
